--- a/単語/皆の日本語　単語.xlsx
+++ b/単語/皆の日本語　単語.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\-\単語\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="１" sheetId="1" r:id="rId1"/>
@@ -21,13 +26,15 @@
     <sheet name="12" sheetId="12" r:id="rId12"/>
     <sheet name="13" sheetId="13" r:id="rId13"/>
     <sheet name="14" sheetId="14" r:id="rId14"/>
+    <sheet name="15" sheetId="15" r:id="rId15"/>
+    <sheet name="16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="517">
   <si>
     <t>①たん　ご　(単語)</t>
   </si>
@@ -2388,19 +2395,817 @@
   </si>
   <si>
     <t>窓</t>
+  </si>
+  <si>
+    <t>すみません</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>思（おも）い出します（思い出す）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>いらっしゃいます（いらっしゃる）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作（つく）ります｜造ります（作る｜造る）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究（けんきゅう）します（研究する）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京（ぺきん）に住（す）んでいます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>でんきせいひん（電気製品）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ソフト（soft）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>コンピューター．ソフト</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じこくひょう　　（時刻表）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいざい　　　　（経済）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうこう　　（高校）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんもん　　（専門）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>どくしん　　（独身）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>住（す）みます　　（住む）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>知（し）ります　　（知る）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>カタログ　　（catalog）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>でんしじしょ（電子辞書）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいしゃ　　　　（歯医者）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>しやくしょ　　　（市役所）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>みなさん　　　　（皆さん）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>みんなのインタビュー</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふく　　　　　　（服）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>にほんばし   （日本橋）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动Ⅰ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动Ⅲ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子词典</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对不起</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>知道</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>住、居住</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>住在北京</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单身</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>想起</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>有、在（います的敬语）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>放</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电器产品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本桥</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>做、制造</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机软件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>时刻表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙医</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政府</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家的采访</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 たん　ご　(単語)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>置（お）きます　　（置く）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいひん　　   （製品）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>しりょう　　   （資料）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>売（う）ります　　（売る）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>14　たん　ご　(単語)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1６ たん　ご　(単語)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうやって</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>どの～</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>かみ　　　　　　（髪）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>かお　　　　　　（顔）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ながい　　　　　（長い）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>どれ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>まず　　　　　　　（先ず）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>押（お）します</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>キャッシュカード　（cash card）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>あんしょうばんごう（暗証番号）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きんがく　　　　　（金額）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>かくにん　　　　　（確認）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ボタン　　　　　　（botao）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>せ　　　　　　　　（背）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>背が高い</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>め　　　　　　　　（目）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>みみ　　　　　　　（耳）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はな　　　　　　　（鼻）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>くち　　　　　　　（口）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>は　　　　　　　　（歯）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>おなか</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>あし　　　　　　　（足）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>みじかい　　　　　（短い）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>わかい　　　　　　（若い）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>あたま　　　　　　（頭）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭がいい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>からだ　　　　　　（体）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>うめだ　　　　　　（梅田）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ジェーアール　　　（ＪＲ）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>お金を下ろします</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆきまつり　　　　（雪祭り）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>くらい　　　　　　（暗い）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>サービス　　　　　（service）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>すごいですね</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[いいえ]　まだまだです</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>みどり　　　　　　（緑）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じんじゃ　　　　　（神社）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話（でんわ）します（電話する）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗（の）り換（か）えます（乗り換える）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入（い）れます（入れる）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>見学（けんがく）します（見学する）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>出（だ）します     （出す）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>始（はじ）めます （始める）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[お]　てら　　　　 （お寺）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入（はい）ります   （入る）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲（の）みます       （飲む）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいがくまえ　　　（大学前）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>電車（でんしゃ）に乗ります</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>降（お）ります       （降りる）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">電車（でんしゃ）を　降ります </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗（の）ります　　（乗る）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ーばん　　　　　　（－番）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>あかるい　　　　　（明るい）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴（あ）びます　　（浴びる）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>シャワー             　　（shower）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ジョギング　　　　（jogging）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>つぎに　　　　　　（次に）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>０、1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>出（だ）ます           （出す）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学を出ます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢跑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋浴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>浇、淋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋浴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>明亮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么~</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>——号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐、乘</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘电车</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>下（车）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>下电车</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>参观</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪个~（三个以上的东西）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>头发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>长</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪个~（三个以上的东西）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>您是取钱吗？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>按、押、推</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>其次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提款卡、借记卡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入、插入</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键、开关</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>个子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>个子高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼睛</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳朵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙齿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>肚子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚、腿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>短</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>年轻</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>头、脑子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪明</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅田（大阪街道名）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR(日本铁道公司)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>换乘</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>おろします（下ろす）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>取（钱）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>取款</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿出、取出、提交、寄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打电话</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪节</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏暗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>寺庙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>真了不起、真棒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不、还差得远呢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>万隆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色、绿树、绿草</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦拉克鲁斯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗兰肯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大学に入ります </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上大学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>出去、离开</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学毕业</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>神社</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝（特指酒）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ベラクルス               （Veracruz）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>フランケン               （Franken）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>バンドン                   （Bandung）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上（学）、进（公司）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动Ⅱ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>造句</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>イ形</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动Ⅲ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>シャワーを浴びます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学前（虚构的车站）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>お引（ひ）き出（だ）しですか</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2435,156 +3240,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2603,194 +3285,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2798,263 +3294,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -3069,9 +3317,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3092,68 +3337,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3440,981 +3674,981 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.2222222222222" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.66666666666667" style="14" customWidth="1"/>
-    <col min="3" max="3" width="11.4444444444444" style="5" customWidth="1"/>
-    <col min="4" max="4" width="36.3333333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="11">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>0</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>0</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="11">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="11">
         <v>0</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="11">
         <v>1</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="11">
         <v>1</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="11">
         <v>4</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="11">
         <v>1</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="11">
         <v>1</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="11">
         <v>0</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="11">
         <v>1</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="11">
         <v>0</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="11">
         <v>0</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="11">
         <v>1</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="11">
         <v>1</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="11">
         <v>3</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="11">
         <v>1</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="11">
         <v>0</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="C47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="11">
         <v>1</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="11">
         <v>1</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="C50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="11">
         <v>4</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="C54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" ht="14.4" spans="1:4">
+    <row r="55" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
     </row>
-    <row r="56" ht="14.4" spans="1:4">
+    <row r="56" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
     </row>
-    <row r="57" ht="14.4" spans="1:4">
+    <row r="57" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
     </row>
-    <row r="58" ht="14.4" spans="1:4">
+    <row r="58" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
     </row>
-    <row r="59" ht="14.4" spans="1:4">
+    <row r="59" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
     </row>
-    <row r="60" ht="14.4" spans="1:4">
+    <row r="60" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
     </row>
-    <row r="61" ht="14.4" spans="1:4">
+    <row r="61" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
     </row>
-    <row r="62" ht="14.4" spans="1:4">
+    <row r="62" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
     </row>
-    <row r="63" ht="14.4" spans="1:4">
+    <row r="63" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
     </row>
-    <row r="64" ht="14.4" spans="1:4">
+    <row r="64" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
     </row>
-    <row r="65" ht="14.4" spans="1:4">
+    <row r="65" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
     </row>
-    <row r="66" ht="14.4" spans="1:4">
+    <row r="66" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
     </row>
-    <row r="67" ht="14.4" spans="1:4">
+    <row r="67" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
     </row>
-    <row r="68" ht="14.4" spans="1:4">
+    <row r="68" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
     </row>
-    <row r="69" ht="14.4" spans="1:4">
+    <row r="69" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
     </row>
-    <row r="70" ht="14.4" spans="1:4">
+    <row r="70" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
     </row>
-    <row r="71" ht="14.4" spans="1:4">
+    <row r="71" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
     </row>
-    <row r="72" ht="14.4" spans="1:4">
+    <row r="72" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
     </row>
-    <row r="73" ht="14.4" spans="1:4">
+    <row r="73" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
     </row>
-    <row r="74" ht="14.4" spans="1:4">
+    <row r="74" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
     </row>
-    <row r="75" ht="14.4" spans="1:4">
+    <row r="75" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
     </row>
-    <row r="76" ht="14.4" spans="1:4">
+    <row r="76" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
     </row>
-    <row r="77" ht="14.4" spans="1:4">
+    <row r="77" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
     </row>
-    <row r="78" ht="14.4" spans="1:4">
+    <row r="78" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
     </row>
-    <row r="79" ht="14.4" spans="1:4">
+    <row r="79" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
     </row>
-    <row r="80" ht="14.4" spans="1:4">
+    <row r="80" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
     </row>
-    <row r="81" ht="14.4" spans="1:4">
+    <row r="81" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
     </row>
-    <row r="82" ht="14.4" spans="1:4">
+    <row r="82" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
     </row>
-    <row r="83" ht="14.4" spans="1:4">
+    <row r="83" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
     </row>
-    <row r="84" ht="14.4" spans="1:4">
+    <row r="84" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
     </row>
-    <row r="85" ht="14.4" spans="1:4">
+    <row r="85" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
     </row>
-    <row r="86" ht="14.4" spans="1:4">
+    <row r="86" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
     </row>
-    <row r="87" ht="14.4" spans="1:4">
+    <row r="87" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
     </row>
-    <row r="88" ht="14.4" spans="1:4">
+    <row r="88" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
     </row>
-    <row r="89" ht="14.4" spans="1:4">
+    <row r="89" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
     </row>
-    <row r="90" ht="14.4" spans="1:4">
+    <row r="90" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
     </row>
-    <row r="91" ht="14.4" spans="1:4">
+    <row r="91" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
     </row>
-    <row r="92" ht="14.4" spans="1:4">
+    <row r="92" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
     </row>
-    <row r="93" ht="14.4" spans="1:4">
+    <row r="93" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
     </row>
-    <row r="94" ht="14.4" spans="1:4">
+    <row r="94" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
     </row>
-    <row r="95" ht="14.4" spans="1:4">
+    <row r="95" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
     </row>
-    <row r="96" ht="14.4" spans="1:4">
+    <row r="96" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
     </row>
-    <row r="97" ht="14.4" spans="1:4">
+    <row r="97" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
     </row>
-    <row r="98" ht="14.4" spans="1:4">
+    <row r="98" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
     </row>
-    <row r="99" ht="14.4" spans="1:4">
+    <row r="99" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
     </row>
-    <row r="100" ht="14.4" spans="1:4">
+    <row r="100" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
     </row>
-    <row r="101" ht="14.4" spans="1:4">
+    <row r="101" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
     </row>
-    <row r="102" ht="14.4" spans="1:4">
+    <row r="102" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
     </row>
-    <row r="103" ht="14.4" spans="1:4">
+    <row r="103" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -4424,651 +4658,641 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.8888888888889" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.88888888888889" style="4"/>
-    <col min="3" max="3" width="8.88888888888889" style="5"/>
-    <col min="4" max="4" width="41.1111111111111" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2"/>
+    <col min="3" max="3" width="8.875" style="3"/>
+    <col min="4" max="4" width="41.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>0</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>0</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>0</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B30" s="4">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>0</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B32" s="4">
-        <v>2</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B38" s="4">
-        <v>2</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>1</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B40" s="4">
-        <v>2</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>0</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <v>0</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <v>0</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="C47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5076,48 +5300,47 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="15.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="25.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="15.6" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>306</v>
       </c>
@@ -5125,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -5133,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>308</v>
       </c>
@@ -5141,12 +5364,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>311</v>
       </c>
@@ -5154,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>312</v>
       </c>
@@ -5162,17 +5385,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>315</v>
       </c>
@@ -5181,683 +5404,1945 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="42.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="23"/>
+    <col min="4" max="4" width="23.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="23">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="23">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="23">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="23">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="23">
+        <v>4</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B13" s="23">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" s="23">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" s="23">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="23">
+        <v>2</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" s="23">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B22" s="23">
+        <v>0</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="23">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" s="23">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="B26" s="23">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B27" s="23">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="B29" s="23">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="40.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="23"/>
+    <col min="3" max="3" width="9" style="24"/>
+    <col min="4" max="4" width="25.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="23">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" s="23">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B11" s="23">
+        <v>5</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B12" s="23">
+        <v>2</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="23">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="B16" s="23">
+        <v>2</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B17" s="23">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="B18" s="23">
+        <v>2</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="B19" s="23">
+        <v>1</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21" s="23">
+        <v>1</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B22" s="23">
+        <v>0</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" s="23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B24" s="23">
+        <v>4</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="B25" s="23">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B26" s="23">
+        <v>5</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B27" s="23">
+        <v>0</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B28" s="23">
+        <v>0</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" s="23">
+        <v>1</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="B32" s="23">
+        <v>1</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="B33" s="23">
+        <v>2</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B34" s="23">
+        <v>0</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B35" s="23">
+        <v>0</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B36" s="23">
+        <v>1</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="B37" s="23">
+        <v>0</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="B38" s="23">
+        <v>2</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B39" s="23">
+        <v>3</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B40" s="23">
+        <v>2</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="B41" s="23">
+        <v>3</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B43" s="23">
+        <v>0</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="B45" s="23">
+        <v>3</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="B47" s="23">
+        <v>2</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="B49" s="23">
+        <v>0</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B50" s="23">
+        <v>1</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" s="23">
+        <v>0</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B52" s="23">
+        <v>3</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B53" s="23">
+        <v>0</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" s="23">
+        <v>1</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B55" s="23">
+        <v>0</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="B58" s="23">
+        <v>1</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B59" s="23">
+        <v>1</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="B62" s="23">
+        <v>1</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="B64" s="23">
+        <v>1</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="B66" s="23">
+        <v>1</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="B67" s="23">
+        <v>1</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="5.44444444444444" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="25.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="15.6" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:4">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:4">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:4">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:4">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>0</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:4">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>0</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:4">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:4">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:4">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:4">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>0</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:4">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:4">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>0</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:4">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>0</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:4">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:4">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>0</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:4">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>0</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:4">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="10">
-        <v>2</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:4">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:4">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="1:4">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:4">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="10">
-        <v>2</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="1:4">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:4">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>3</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="1:4">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>1</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:4">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:4">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="7">
         <v>0</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:4">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="7">
         <v>0</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:4">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="7">
         <v>4</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:4">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="7">
         <v>0</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:4">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="7">
         <v>1</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:4">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="7">
         <v>0</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="12" t="s">
+      <c r="C32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:4">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:4">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="7">
         <v>1</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="12" t="s">
+      <c r="C34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="1:4">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="7">
         <v>0</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="C35" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="1:4">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="12" t="s">
+      <c r="C36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="1:4">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="7">
         <v>1</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="1:4">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="7">
         <v>0</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="12" t="s">
+      <c r="C38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="1:4">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="7">
         <v>0</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="1:4">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="7">
         <v>3</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="12" t="s">
+      <c r="C40" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" ht="15.6" spans="1:4">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="7">
         <v>0</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="C41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="1:4">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="7">
         <v>3</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="12" t="s">
+      <c r="C42" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="43" ht="15.6" spans="1:4">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="7">
         <v>0</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="44" ht="15.6" spans="1:4">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="12" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="1:4">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="7">
         <v>1</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="12" t="s">
+      <c r="C45" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="1:4">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="12" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="47" ht="15.6" spans="1:4">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="7">
         <v>1</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48" ht="15.6" spans="1:4">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="7">
         <v>0</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="49" ht="15.6" spans="1:4">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="7">
         <v>1</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="9" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5865,121 +7350,100 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/単語/皆の日本語　単語.xlsx
+++ b/単語/皆の日本語　単語.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="9345" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="１" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="14" sheetId="14" r:id="rId14"/>
     <sheet name="15" sheetId="15" r:id="rId15"/>
     <sheet name="16" sheetId="16" r:id="rId16"/>
+    <sheet name="17" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="625">
   <si>
     <t>①たん　ご　(単語)</t>
   </si>
@@ -3198,6 +3199,438 @@
   </si>
   <si>
     <t>お引（ひ）き出（だ）しですか</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 たん　ご　(単語)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいじょうぶ　　　（大丈夫）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんぱいします　　（心配する）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ですから</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>お金を払います</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>～までに</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうしましたか</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねつ　　　　　　　（熱）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱がある</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>かぜ　　　　　　　（風邪）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>２、3~</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅっちょうします（出張します）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>くすり　　　　　　（薬）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>のみます　　　　　（飲む）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>薬を飲みます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>それから</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>「お」ふろ　　　　（お風呂）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいります　　　　（入る）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>お風呂に入ります</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいじ　　　　　　（大事）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>お大事に</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘（わす）れます　　（忘れる）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>返（かえ）します　　（返す）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>残業（ざんぎょう）します</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱（ぬ）ぎます　　　（脱ぐ）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴（くつ）を脱ぎます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きんえん　　　　　　（禁煙）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>あぶない　　　　　　（危ない）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>０、3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいせつ　　　　　　（大切）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>無（な）くします　　（無くす）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>覚（おぼ）えます　　（覚える）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>１－０</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>出（で）かけます　　（出かける）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>びょうき　　　　　　（病気）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>「けんこう」ほけんしょう　（健康保険証）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>持（も）って行（い）きます（持っていく）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>１－１</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>うわぎ　　　　　　　（上着）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>したぎ　　　　　　　（下着）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>０</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>０</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>払（はら）います　　　　（払う）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>１</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>２</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>２</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>に、さんにち　　　（２、3日）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>没问题、不要紧</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>担心</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>因此</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>付（钱）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>付钱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>到~为止</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么了？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗓子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>疼、痛</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>喉咙疼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发烧</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>いたい　　　　　　（痛い）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>２</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>「～が」痛いです</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>～疼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>のど　　　　　　　（喉）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>喉が痛いです</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>感冒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>两三天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>两三~</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>药</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃（药）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃药</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗澡、澡盆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>进、入、洗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗澡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍贵、重要</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多保重</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>归还</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱（衣服、鞋）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱鞋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁烟</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢失</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>带去、拿去</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>出门、外出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康保险证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>带来、拿来</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外套</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>内衣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>持（も）って来（き）ます 　（持って来る）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ナ形</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>接</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>助</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>连语</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动Ⅱ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>接</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3300,7 +3733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3340,6 +3773,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3358,22 +3809,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3682,7 +4118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -3695,12 +4131,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -4660,7 +5096,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4726,12 +5162,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5321,12 +5757,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5420,384 +5856,384 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="23"/>
-    <col min="4" max="4" width="23.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="42.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="17"/>
+    <col min="4" max="4" width="23.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="17">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="14" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="17">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="14" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="17">
         <v>0</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="14" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="14" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="14" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="17">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="14" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="17">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="14" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="17">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="14" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="14" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="17">
         <v>4</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="17">
         <v>0</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="14" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="17">
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="14" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="17">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="14" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="14" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="17">
         <v>0</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="14" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="16" t="s">
         <v>339</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="14" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B19" s="23">
-        <v>2</v>
-      </c>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="17">
+        <v>2</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="14" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="17">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="14" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="15" t="s">
         <v>324</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="14" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="17">
         <v>0</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="14" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="17">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="14" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="17">
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="14" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="17">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="14" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="17">
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="14" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="17">
         <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="14" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="15" t="s">
         <v>337</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="14" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="17">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="14" t="s">
         <v>370</v>
       </c>
     </row>
@@ -5814,853 +6250,1405 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="23"/>
-    <col min="3" max="3" width="9" style="24"/>
-    <col min="4" max="4" width="25.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="40.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="17"/>
+    <col min="3" max="3" width="9" style="18"/>
+    <col min="4" max="4" width="25.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="17">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="17">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="14" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="14" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="17">
         <v>0</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="14" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="14" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="17">
         <v>0</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="14" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="17">
         <v>0</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="14" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="14" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="17">
         <v>5</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="B12" s="23">
-        <v>2</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="14" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="17">
         <v>0</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="14" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="14" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="23">
-        <v>2</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="20" t="s">
+      <c r="B16" s="17">
+        <v>2</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="17">
         <v>0</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="B18" s="23">
-        <v>2</v>
-      </c>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="17">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="14" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="14" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="17">
         <v>1</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="14" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="17">
         <v>0</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="14" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="B23" s="23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="20" t="s">
+      <c r="B23" s="17">
+        <v>2</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="17">
         <v>4</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="17">
         <v>0</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="17">
         <v>5</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="17">
         <v>0</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="20" t="s">
+      <c r="C27" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="17">
         <v>0</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="20" t="s">
+      <c r="C28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="20" t="s">
+      <c r="C29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="17">
         <v>1</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="20" t="s">
+      <c r="C30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="14" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="17">
         <v>1</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="20" t="s">
+      <c r="C32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B33" s="23">
-        <v>2</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="20" t="s">
+      <c r="B33" s="17">
+        <v>2</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="17">
         <v>0</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="20" t="s">
+      <c r="C34" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="17">
         <v>0</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="20" t="s">
+      <c r="C35" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="17">
         <v>1</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="20" t="s">
+      <c r="C36" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="17">
         <v>0</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="20" t="s">
+      <c r="C37" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B38" s="23">
-        <v>2</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="20" t="s">
+      <c r="B38" s="17">
+        <v>2</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="17">
         <v>3</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="14" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="B40" s="23">
-        <v>2</v>
-      </c>
-      <c r="C40" s="24" t="s">
+      <c r="B40" s="17">
+        <v>2</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="14" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="17">
         <v>3</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="20" t="s">
+      <c r="C41" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="14" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="17">
         <v>0</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="20" t="s">
+      <c r="C43" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="20" t="s">
+      <c r="C44" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="17">
         <v>3</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="20" t="s">
+      <c r="C45" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="14" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="B47" s="23">
-        <v>2</v>
-      </c>
-      <c r="C47" s="24" t="s">
+      <c r="B47" s="17">
+        <v>2</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="14" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="14" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="17">
         <v>0</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="14" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="17">
         <v>1</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="14" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="17">
         <v>0</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="14" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="17">
         <v>3</v>
       </c>
-      <c r="C52" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="20" t="s">
+      <c r="C52" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="17">
         <v>0</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="14" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="17">
         <v>1</v>
       </c>
-      <c r="C54" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="20" t="s">
+      <c r="C54" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="17">
         <v>0</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="20" t="s">
+      <c r="C55" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="14" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="14" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="17">
         <v>1</v>
       </c>
-      <c r="C58" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="20" t="s">
+      <c r="C58" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="17">
         <v>1</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="20" t="s">
+      <c r="C59" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="C60" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="20" t="s">
+      <c r="C60" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="C61" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="20" t="s">
+      <c r="C61" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="17">
         <v>1</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="14" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="14" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="17">
         <v>1</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="14" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="14" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="17">
         <v>1</v>
       </c>
-      <c r="C66" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="20" t="s">
+      <c r="C66" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="17">
         <v>1</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="14" t="s">
         <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="42.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="25">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" s="25">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" s="25">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B28" s="25">
+        <v>0</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B35" s="25">
+        <v>0</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B36" s="25">
+        <v>0</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="B41" s="25">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -6689,12 +7677,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
